--- a/outputAvancoPorEtapa.xlsx
+++ b/outputAvancoPorEtapa.xlsx
@@ -37,97 +37,97 @@
     <t>Brasil</t>
   </si>
   <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>França</t>
+  </si>
+  <si>
     <t>Bélgica</t>
   </si>
   <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>França</t>
+    <t>Holanda</t>
+  </si>
+  <si>
+    <t>Espanha</t>
+  </si>
+  <si>
+    <t>Portugal</t>
   </si>
   <si>
     <t>Inglaterra</t>
   </si>
   <si>
-    <t>Espanha</t>
-  </si>
-  <si>
-    <t>Holanda</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
     <t>Dinamarca</t>
   </si>
   <si>
+    <t>Croácia</t>
+  </si>
+  <si>
+    <t>Alemanha</t>
+  </si>
+  <si>
     <t>Uruguai</t>
   </si>
   <si>
+    <t>Suíça</t>
+  </si>
+  <si>
     <t>México</t>
   </si>
   <si>
-    <t>Alemanha</t>
-  </si>
-  <si>
-    <t>Croácia</t>
-  </si>
-  <si>
     <t>Estados Unidos</t>
   </si>
   <si>
-    <t>Suíça</t>
+    <t>Sérvia</t>
+  </si>
+  <si>
+    <t>Polônia</t>
   </si>
   <si>
     <t>Senegal</t>
   </si>
   <si>
+    <t>Irã</t>
+  </si>
+  <si>
+    <t>Equador</t>
+  </si>
+  <si>
+    <t>Japão</t>
+  </si>
+  <si>
+    <t>Coreia do Sul</t>
+  </si>
+  <si>
     <t>País de Gales</t>
   </si>
   <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
     <t>Marrocos</t>
   </si>
   <si>
-    <t>Polônia</t>
-  </si>
-  <si>
-    <t>Irã</t>
-  </si>
-  <si>
-    <t>Sérvia</t>
-  </si>
-  <si>
-    <t>Japão</t>
-  </si>
-  <si>
-    <t>Coreia do Sul</t>
+    <t>Austrália</t>
   </si>
   <si>
     <t>Tunísia</t>
   </si>
   <si>
-    <t>Costa Rica</t>
+    <t>Canadá</t>
+  </si>
+  <si>
+    <t>Arábia Saudita</t>
   </si>
   <si>
     <t>Camarões</t>
   </si>
   <si>
-    <t>Equador</t>
-  </si>
-  <si>
-    <t>Austrália</t>
-  </si>
-  <si>
-    <t>Canadá</t>
-  </si>
-  <si>
     <t>Catar</t>
   </si>
   <si>
     <t>Gana</t>
-  </si>
-  <si>
-    <t>Arábia Saudita</t>
   </si>
 </sst>
 </file>
@@ -516,19 +516,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.8474</v>
+        <v>0.836</v>
       </c>
       <c r="C2">
-        <v>0.6714656596648572</v>
+        <v>0.6546650717703349</v>
       </c>
       <c r="D2">
-        <v>0.6195079086115993</v>
+        <v>0.6259820939155856</v>
       </c>
       <c r="E2">
-        <v>0.6082269503546099</v>
+        <v>0.6138353765323993</v>
       </c>
       <c r="F2">
-        <v>0.6291977611940298</v>
+        <v>0.5844032334759867</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -536,19 +536,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.8387</v>
+        <v>0.8173</v>
       </c>
       <c r="C3">
-        <v>0.646834386550614</v>
+        <v>0.6046739263428361</v>
       </c>
       <c r="D3">
-        <v>0.5957603686635945</v>
+        <v>0.6305139619587212</v>
       </c>
       <c r="E3">
-        <v>0.6017945544554456</v>
+        <v>0.5632220795892169</v>
       </c>
       <c r="F3">
-        <v>0.5789203084832905</v>
+        <v>0.6022792022792023</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -556,19 +556,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.8138</v>
+        <v>0.802</v>
       </c>
       <c r="C4">
-        <v>0.6023593020398132</v>
+        <v>0.6022443890274314</v>
       </c>
       <c r="D4">
-        <v>0.6119951040391677</v>
+        <v>0.6118012422360248</v>
       </c>
       <c r="E4">
-        <v>0.5703333333333334</v>
+        <v>0.5587140439932319</v>
       </c>
       <c r="F4">
-        <v>0.5762711864406779</v>
+        <v>0.5578437310720775</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -576,19 +576,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.8157</v>
+        <v>0.7836</v>
       </c>
       <c r="C5">
-        <v>0.5927424298148829</v>
+        <v>0.5902246043899949</v>
       </c>
       <c r="D5">
-        <v>0.6095139607032058</v>
+        <v>0.5439999999999999</v>
       </c>
       <c r="E5">
-        <v>0.5744825246012895</v>
+        <v>0.5663751987281399</v>
       </c>
       <c r="F5">
-        <v>0.5593620791494389</v>
+        <v>0.5410526315789475</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -596,19 +596,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.7199</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="C6">
-        <v>0.6482844839561051</v>
+        <v>0.6029375764993881</v>
       </c>
       <c r="D6">
-        <v>0.5536747375187487</v>
+        <v>0.5452699959399107</v>
       </c>
       <c r="E6">
-        <v>0.5406346749226005</v>
+        <v>0.5089352196574832</v>
       </c>
       <c r="F6">
-        <v>0.5268432355046528</v>
+        <v>0.5420629114850037</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -616,19 +616,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.7401</v>
+        <v>0.7323</v>
       </c>
       <c r="C7">
-        <v>0.5449263613025267</v>
+        <v>0.5916973917793255</v>
       </c>
       <c r="D7">
-        <v>0.5534341681130672</v>
+        <v>0.5453496422801754</v>
       </c>
       <c r="E7">
-        <v>0.5349462365591398</v>
+        <v>0.5615742699957681</v>
       </c>
       <c r="F7">
-        <v>0.5175879396984925</v>
+        <v>0.5463451394122079</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -636,19 +636,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.8223</v>
+        <v>0.7806999999999999</v>
       </c>
       <c r="C8">
-        <v>0.5361790100936398</v>
+        <v>0.5297809657999232</v>
       </c>
       <c r="D8">
-        <v>0.4996597867997278</v>
+        <v>0.5374758220502901</v>
       </c>
       <c r="E8">
-        <v>0.4979573309123922</v>
+        <v>0.5389113810166442</v>
       </c>
       <c r="F8">
-        <v>0.4612579762989972</v>
+        <v>0.5158597662771285</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -656,19 +656,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.777</v>
+        <v>0.7094</v>
       </c>
       <c r="C9">
-        <v>0.5225225225225225</v>
+        <v>0.5990978291513955</v>
       </c>
       <c r="D9">
-        <v>0.5157635467980295</v>
+        <v>0.5275294117647059</v>
       </c>
       <c r="E9">
-        <v>0.5085959885386819</v>
+        <v>0.5200713648528099</v>
       </c>
       <c r="F9">
-        <v>0.4741784037558686</v>
+        <v>0.5017152658662093</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -676,19 +676,19 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.6931</v>
+        <v>0.6951000000000001</v>
       </c>
       <c r="C10">
-        <v>0.5095945750973885</v>
+        <v>0.5209322399654726</v>
       </c>
       <c r="D10">
-        <v>0.5274631936579841</v>
+        <v>0.5269262634631318</v>
       </c>
       <c r="E10">
-        <v>0.4857756307031669</v>
+        <v>0.4916142557651991</v>
       </c>
       <c r="F10">
-        <v>0.4784530386740332</v>
+        <v>0.4541577825159915</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -696,19 +696,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.7369</v>
+        <v>0.6778999999999999</v>
       </c>
       <c r="C11">
-        <v>0.481340751798073</v>
+        <v>0.5182180262575602</v>
       </c>
       <c r="D11">
-        <v>0.4837891175641387</v>
+        <v>0.4807856532877882</v>
       </c>
       <c r="E11">
-        <v>0.4731934731934732</v>
+        <v>0.5038484310242747</v>
       </c>
       <c r="F11">
-        <v>0.4716748768472907</v>
+        <v>0.4888366627497062</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -716,19 +716,19 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>0.6765</v>
+        <v>0.615</v>
       </c>
       <c r="C12">
-        <v>0.50509977827051</v>
+        <v>0.5226016260162601</v>
       </c>
       <c r="D12">
-        <v>0.5139010828211882</v>
+        <v>0.4953329184816428</v>
       </c>
       <c r="E12">
-        <v>0.4527334851936218</v>
+        <v>0.4880653266331658</v>
       </c>
       <c r="F12">
-        <v>0.4628930817610063</v>
+        <v>0.4774774774774775</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -736,19 +736,19 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>0.6452</v>
+        <v>0.7089</v>
       </c>
       <c r="C13">
-        <v>0.500464972101674</v>
+        <v>0.4698829171956553</v>
       </c>
       <c r="D13">
-        <v>0.4899349643852586</v>
+        <v>0.4905433803662563</v>
       </c>
       <c r="E13">
-        <v>0.4791403286978508</v>
+        <v>0.4847001223990209</v>
       </c>
       <c r="F13">
-        <v>0.470976253298153</v>
+        <v>0.4482323232323231</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -756,19 +756,19 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>0.5776</v>
+        <v>0.5878</v>
       </c>
       <c r="C14">
-        <v>0.5015581717451524</v>
+        <v>0.5083361687648861</v>
       </c>
       <c r="D14">
-        <v>0.4804970659302726</v>
+        <v>0.4785809906291834</v>
       </c>
       <c r="E14">
-        <v>0.4533045977011495</v>
+        <v>0.4741258741258741</v>
       </c>
       <c r="F14">
-        <v>0.4263074484944532</v>
+        <v>0.4115044247787611</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -776,19 +776,19 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>0.5432</v>
+        <v>0.5666</v>
       </c>
       <c r="C15">
-        <v>0.5554123711340206</v>
+        <v>0.4639957642075539</v>
       </c>
       <c r="D15">
-        <v>0.4749751408684123</v>
+        <v>0.4781285659946747</v>
       </c>
       <c r="E15">
-        <v>0.4591765526866713</v>
+        <v>0.4311853619729514</v>
       </c>
       <c r="F15">
-        <v>0.405775075987842</v>
+        <v>0.4243542435424354</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -796,19 +796,19 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>0.5675</v>
+        <v>0.516</v>
       </c>
       <c r="C16">
-        <v>0.5097797356828194</v>
+        <v>0.4978682170542636</v>
       </c>
       <c r="D16">
-        <v>0.4483235395782925</v>
+        <v>0.444141689373297</v>
       </c>
       <c r="E16">
-        <v>0.4726291441788743</v>
+        <v>0.4294478527607362</v>
       </c>
       <c r="F16">
-        <v>0.3931484502446982</v>
+        <v>0.4204081632653061</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -816,19 +816,19 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>0.6827</v>
+        <v>0.4591</v>
       </c>
       <c r="C17">
-        <v>0.4492456423026219</v>
+        <v>0.4465258113700719</v>
       </c>
       <c r="D17">
-        <v>0.4193022497554614</v>
+        <v>0.4321951219512195</v>
       </c>
       <c r="E17">
-        <v>0.4105754276827372</v>
+        <v>0.435665914221219</v>
       </c>
       <c r="F17">
-        <v>0.3920454545454545</v>
+        <v>0.4093264248704663</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -836,19 +836,19 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>0.3944</v>
+        <v>0.4803</v>
       </c>
       <c r="C18">
-        <v>0.5005070993914807</v>
+        <v>0.4268165729752238</v>
       </c>
       <c r="D18">
-        <v>0.4159067882472138</v>
+        <v>0.451219512195122</v>
       </c>
       <c r="E18">
-        <v>0.3739342265529841</v>
+        <v>0.385945945945946</v>
       </c>
       <c r="F18">
-        <v>0.3843648208469055</v>
+        <v>0.4005602240896358</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -856,19 +856,19 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>0.4052</v>
+        <v>0.5354</v>
       </c>
       <c r="C19">
-        <v>0.4212734452122409</v>
+        <v>0.4247291744490101</v>
       </c>
       <c r="D19">
-        <v>0.3878148799062683</v>
+        <v>0.3869832893579596</v>
       </c>
       <c r="E19">
-        <v>0.3851963746223565</v>
+        <v>0.3897727272727273</v>
       </c>
       <c r="F19">
-        <v>0.3725490196078431</v>
+        <v>0.3527696793002916</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -876,19 +876,19 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>0.3949</v>
+        <v>0.4106</v>
       </c>
       <c r="C20">
-        <v>0.3816155988857939</v>
+        <v>0.4680954700438383</v>
       </c>
       <c r="D20">
-        <v>0.416058394160584</v>
+        <v>0.3959417273673257</v>
       </c>
       <c r="E20">
-        <v>0.379585326953748</v>
+        <v>0.4021024967148489</v>
       </c>
       <c r="F20">
-        <v>0.3739495798319327</v>
+        <v>0.3856209150326798</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -896,19 +896,19 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>0.3425</v>
+        <v>0.5185999999999999</v>
       </c>
       <c r="C21">
-        <v>0.4618978102189781</v>
+        <v>0.4251831854994216</v>
       </c>
       <c r="D21">
-        <v>0.3811630847029077</v>
+        <v>0.3736961451247165</v>
       </c>
       <c r="E21">
-        <v>0.3747927031509121</v>
+        <v>0.3810679611650485</v>
       </c>
       <c r="F21">
-        <v>0.3584070796460177</v>
+        <v>0.3439490445859873</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -916,19 +916,19 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>0.3839</v>
+        <v>0.3855</v>
       </c>
       <c r="C22">
-        <v>0.421984891898932</v>
+        <v>0.3994811932555123</v>
       </c>
       <c r="D22">
-        <v>0.3679012345679012</v>
+        <v>0.3733766233766234</v>
       </c>
       <c r="E22">
-        <v>0.3557046979865772</v>
+        <v>0.3860869565217391</v>
       </c>
       <c r="F22">
-        <v>0.3632075471698114</v>
+        <v>0.4324324324324324</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -936,19 +936,19 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>0.3871</v>
+        <v>0.4642</v>
       </c>
       <c r="C23">
-        <v>0.3727718935675536</v>
+        <v>0.3612666953899181</v>
       </c>
       <c r="D23">
-        <v>0.3901593901593902</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="E23">
-        <v>0.4031971580817051</v>
+        <v>0.3937984496124031</v>
       </c>
       <c r="F23">
-        <v>0.3215859030837004</v>
+        <v>0.3188976377952756</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -956,19 +956,19 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>0.4288</v>
+        <v>0.364</v>
       </c>
       <c r="C24">
-        <v>0.345615671641791</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="D24">
-        <v>0.3515519568151147</v>
+        <v>0.3782051282051282</v>
       </c>
       <c r="E24">
-        <v>0.3550863723608445</v>
+        <v>0.3627118644067797</v>
       </c>
       <c r="F24">
-        <v>0.3837837837837838</v>
+        <v>0.3551401869158879</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -976,19 +976,19 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>0.2833</v>
+        <v>0.2672</v>
       </c>
       <c r="C25">
-        <v>0.3339216378397459</v>
+        <v>0.3622754491017964</v>
       </c>
       <c r="D25">
-        <v>0.3477801268498943</v>
+        <v>0.3667355371900826</v>
       </c>
       <c r="E25">
-        <v>0.3100303951367782</v>
+        <v>0.3408450704225353</v>
       </c>
       <c r="F25">
-        <v>0.2450980392156863</v>
+        <v>0.3471074380165289</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -996,19 +996,19 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>0.2276</v>
+        <v>0.2939</v>
       </c>
       <c r="C26">
-        <v>0.3220562390158173</v>
+        <v>0.3453555631167064</v>
       </c>
       <c r="D26">
-        <v>0.330150068212824</v>
+        <v>0.3330049261083743</v>
       </c>
       <c r="E26">
-        <v>0.3099173553719008</v>
+        <v>0.3284023668639054</v>
       </c>
       <c r="F26">
-        <v>0.2666666666666667</v>
+        <v>0.3153153153153153</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1016,19 +1016,19 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>0.2012</v>
+        <v>0.2488</v>
       </c>
       <c r="C27">
-        <v>0.3111332007952287</v>
+        <v>0.3223472668810289</v>
       </c>
       <c r="D27">
-        <v>0.3099041533546326</v>
+        <v>0.3890274314214464</v>
       </c>
       <c r="E27">
-        <v>0.3144329896907216</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F27">
-        <v>0.2786885245901639</v>
+        <v>0.3269230769230769</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1036,19 +1036,19 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>0.2806</v>
+        <v>0.2541</v>
       </c>
       <c r="C28">
-        <v>0.2683535281539558</v>
+        <v>0.3242817788272334</v>
       </c>
       <c r="D28">
-        <v>0.2443559096945551</v>
+        <v>0.3434466019417475</v>
       </c>
       <c r="E28">
-        <v>0.2445652173913043</v>
+        <v>0.2826855123674912</v>
       </c>
       <c r="F28">
-        <v>0.2666666666666667</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1056,19 +1056,19 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>0.2079</v>
+        <v>0.2446</v>
       </c>
       <c r="C29">
-        <v>0.2958152958152958</v>
+        <v>0.3237939493049877</v>
       </c>
       <c r="D29">
-        <v>0.3008130081300813</v>
+        <v>0.3093434343434343</v>
       </c>
       <c r="E29">
-        <v>0.2810810810810811</v>
+        <v>0.289795918367347</v>
       </c>
       <c r="F29">
-        <v>0.2307692307692308</v>
+        <v>0.2816901408450704</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1076,19 +1076,19 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>0.1785</v>
+        <v>0.1358</v>
       </c>
       <c r="C30">
-        <v>0.2985994397759104</v>
+        <v>0.2223858615611193</v>
       </c>
       <c r="D30">
-        <v>0.2682926829268293</v>
+        <v>0.2218543046357616</v>
       </c>
       <c r="E30">
-        <v>0.2377622377622377</v>
+        <v>0.3582089552238806</v>
       </c>
       <c r="F30">
-        <v>0.1764705882352941</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1096,19 +1096,19 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>0.2144</v>
+        <v>0.1171</v>
       </c>
       <c r="C31">
-        <v>0.2476679104477612</v>
+        <v>0.2374039282664389</v>
       </c>
       <c r="D31">
-        <v>0.231638418079096</v>
+        <v>0.2589928057553957</v>
       </c>
       <c r="E31">
-        <v>0.1707317073170732</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="F31">
-        <v>0.2857142857142857</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1116,35 +1116,35 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>0.0573</v>
+        <v>0.129</v>
       </c>
       <c r="C32">
-        <v>0.1431064572425829</v>
+        <v>0.227906976744186</v>
       </c>
       <c r="D32">
-        <v>0.1097560975609756</v>
+        <v>0.1802721088435374</v>
       </c>
       <c r="E32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.2075471698113208</v>
+      </c>
+      <c r="F32">
+        <v>0.2727272727272727</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B33">
-        <v>0.1148</v>
+        <v>0.0462</v>
       </c>
       <c r="C33">
-        <v>0.2142857142857143</v>
+        <v>0.145021645021645</v>
       </c>
       <c r="D33">
-        <v>0.2276422764227642</v>
+        <v>0.1641791044776119</v>
       </c>
       <c r="E33">
-        <v>0.25</v>
-      </c>
-      <c r="F33">
         <v>0</v>
       </c>
     </row>

--- a/outputAvancoPorEtapa.xlsx
+++ b/outputAvancoPorEtapa.xlsx
@@ -64,45 +64,45 @@
     <t>Croácia</t>
   </si>
   <si>
+    <t>Uruguai</t>
+  </si>
+  <si>
     <t>Alemanha</t>
   </si>
   <si>
-    <t>Uruguai</t>
-  </si>
-  <si>
     <t>Suíça</t>
   </si>
   <si>
+    <t>Estados Unidos</t>
+  </si>
+  <si>
     <t>México</t>
   </si>
   <si>
-    <t>Estados Unidos</t>
-  </si>
-  <si>
     <t>Sérvia</t>
   </si>
   <si>
     <t>Polônia</t>
   </si>
   <si>
+    <t>Irã</t>
+  </si>
+  <si>
     <t>Senegal</t>
   </si>
   <si>
-    <t>Irã</t>
-  </si>
-  <si>
     <t>Equador</t>
   </si>
   <si>
+    <t>País de Gales</t>
+  </si>
+  <si>
+    <t>Coreia do Sul</t>
+  </si>
+  <si>
     <t>Japão</t>
   </si>
   <si>
-    <t>Coreia do Sul</t>
-  </si>
-  <si>
-    <t>País de Gales</t>
-  </si>
-  <si>
     <t>Costa Rica</t>
   </si>
   <si>
@@ -112,10 +112,10 @@
     <t>Austrália</t>
   </si>
   <si>
+    <t>Canadá</t>
+  </si>
+  <si>
     <t>Tunísia</t>
-  </si>
-  <si>
-    <t>Canadá</t>
   </si>
   <si>
     <t>Arábia Saudita</t>
@@ -516,19 +516,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.836</v>
+        <v>0.8297</v>
       </c>
       <c r="C2">
-        <v>0.6546650717703349</v>
+        <v>0.6486681933228878</v>
       </c>
       <c r="D2">
-        <v>0.6259820939155856</v>
+        <v>0.6230026012634708</v>
       </c>
       <c r="E2">
-        <v>0.6138353765323993</v>
+        <v>0.6215329555621831</v>
       </c>
       <c r="F2">
-        <v>0.5844032334759867</v>
+        <v>0.6194817658349328</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -536,19 +536,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.8173</v>
+        <v>0.8058</v>
       </c>
       <c r="C3">
-        <v>0.6046739263428361</v>
+        <v>0.6131794489947878</v>
       </c>
       <c r="D3">
-        <v>0.6305139619587212</v>
+        <v>0.6136409633677394</v>
       </c>
       <c r="E3">
-        <v>0.5632220795892169</v>
+        <v>0.5593667546174143</v>
       </c>
       <c r="F3">
-        <v>0.6022792022792023</v>
+        <v>0.5866745283018868</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -556,19 +556,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.802</v>
+        <v>0.7855</v>
       </c>
       <c r="C4">
-        <v>0.6022443890274314</v>
+        <v>0.5905792488860598</v>
       </c>
       <c r="D4">
-        <v>0.6118012422360248</v>
+        <v>0.597542573830567</v>
       </c>
       <c r="E4">
-        <v>0.5587140439932319</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="F4">
-        <v>0.5578437310720775</v>
+        <v>0.5522486772486773</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -576,19 +576,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.7836</v>
+        <v>0.7782</v>
       </c>
       <c r="C5">
-        <v>0.5902246043899949</v>
+        <v>0.5935492161398098</v>
       </c>
       <c r="D5">
-        <v>0.5439999999999999</v>
+        <v>0.5457891318467201</v>
       </c>
       <c r="E5">
-        <v>0.5663751987281399</v>
+        <v>0.5600952003173344</v>
       </c>
       <c r="F5">
-        <v>0.5410526315789475</v>
+        <v>0.5460339943342777</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -596,19 +596,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.8169999999999999</v>
+        <v>0.8191000000000001</v>
       </c>
       <c r="C6">
-        <v>0.6029375764993881</v>
+        <v>0.5921132950799658</v>
       </c>
       <c r="D6">
-        <v>0.5452699959399107</v>
+        <v>0.5531958762886597</v>
       </c>
       <c r="E6">
-        <v>0.5089352196574832</v>
+        <v>0.5262765560939248</v>
       </c>
       <c r="F6">
-        <v>0.5420629114850037</v>
+        <v>0.5169971671388102</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -616,19 +616,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.7323</v>
+        <v>0.7357</v>
       </c>
       <c r="C7">
-        <v>0.5916973917793255</v>
+        <v>0.5805355443795025</v>
       </c>
       <c r="D7">
-        <v>0.5453496422801754</v>
+        <v>0.5471786466869586</v>
       </c>
       <c r="E7">
-        <v>0.5615742699957681</v>
+        <v>0.553701326486949</v>
       </c>
       <c r="F7">
-        <v>0.5463451394122079</v>
+        <v>0.5162287480680062</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -636,19 +636,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.7806999999999999</v>
+        <v>0.7773</v>
       </c>
       <c r="C8">
-        <v>0.5297809657999232</v>
+        <v>0.5286247266177795</v>
       </c>
       <c r="D8">
-        <v>0.5374758220502901</v>
+        <v>0.545874908736919</v>
       </c>
       <c r="E8">
-        <v>0.5389113810166442</v>
+        <v>0.5363352652697281</v>
       </c>
       <c r="F8">
-        <v>0.5158597662771285</v>
+        <v>0.4871155444721529</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -656,19 +656,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.7094</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="C9">
-        <v>0.5990978291513955</v>
+        <v>0.5950795947901593</v>
       </c>
       <c r="D9">
-        <v>0.5275294117647059</v>
+        <v>0.5381809338521401</v>
       </c>
       <c r="E9">
-        <v>0.5200713648528099</v>
+        <v>0.5323090826931767</v>
       </c>
       <c r="F9">
-        <v>0.5017152658662093</v>
+        <v>0.4906621392190152</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -676,19 +676,19 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.6951000000000001</v>
+        <v>0.6756</v>
       </c>
       <c r="C10">
-        <v>0.5209322399654726</v>
+        <v>0.515837773830669</v>
       </c>
       <c r="D10">
-        <v>0.5269262634631318</v>
+        <v>0.5354375896700143</v>
       </c>
       <c r="E10">
-        <v>0.4916142557651991</v>
+        <v>0.4908896034297964</v>
       </c>
       <c r="F10">
-        <v>0.4541577825159915</v>
+        <v>0.4836244541484716</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -696,19 +696,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.6778999999999999</v>
+        <v>0.6713</v>
       </c>
       <c r="C11">
-        <v>0.5182180262575602</v>
+        <v>0.5227171160434977</v>
       </c>
       <c r="D11">
-        <v>0.4807856532877882</v>
+        <v>0.4850384724992876</v>
       </c>
       <c r="E11">
-        <v>0.5038484310242747</v>
+        <v>0.5111633372502937</v>
       </c>
       <c r="F11">
-        <v>0.4888366627497062</v>
+        <v>0.4735632183908046</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -716,19 +716,19 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>0.615</v>
+        <v>0.6966</v>
       </c>
       <c r="C12">
-        <v>0.5226016260162601</v>
+        <v>0.4757393051966695</v>
       </c>
       <c r="D12">
-        <v>0.4953329184816428</v>
+        <v>0.4909474954737478</v>
       </c>
       <c r="E12">
-        <v>0.4880653266331658</v>
+        <v>0.505838967424708</v>
       </c>
       <c r="F12">
-        <v>0.4774774774774775</v>
+        <v>0.4580801944106926</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -736,19 +736,19 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>0.7089</v>
+        <v>0.6072</v>
       </c>
       <c r="C13">
-        <v>0.4698829171956553</v>
+        <v>0.5179512516469038</v>
       </c>
       <c r="D13">
-        <v>0.4905433803662563</v>
+        <v>0.4906200317965024</v>
       </c>
       <c r="E13">
-        <v>0.4847001223990209</v>
+        <v>0.4763447828904731</v>
       </c>
       <c r="F13">
-        <v>0.4482323232323231</v>
+        <v>0.491156462585034</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -756,19 +756,19 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>0.5878</v>
+        <v>0.587</v>
       </c>
       <c r="C14">
-        <v>0.5083361687648861</v>
+        <v>0.5001703577512777</v>
       </c>
       <c r="D14">
-        <v>0.4785809906291834</v>
+        <v>0.4904632152588555</v>
       </c>
       <c r="E14">
-        <v>0.4741258741258741</v>
+        <v>0.4854166666666667</v>
       </c>
       <c r="F14">
-        <v>0.4115044247787611</v>
+        <v>0.4663805436337625</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -776,19 +776,19 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>0.5666</v>
+        <v>0.5204</v>
       </c>
       <c r="C15">
-        <v>0.4639957642075539</v>
+        <v>0.5201767870868563</v>
       </c>
       <c r="D15">
-        <v>0.4781285659946747</v>
+        <v>0.4499445881049132</v>
       </c>
       <c r="E15">
-        <v>0.4311853619729514</v>
+        <v>0.4359605911330049</v>
       </c>
       <c r="F15">
-        <v>0.4243542435424354</v>
+        <v>0.448210922787194</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -796,19 +796,19 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>0.516</v>
+        <v>0.5606</v>
       </c>
       <c r="C16">
-        <v>0.4978682170542636</v>
+        <v>0.4516589368533714</v>
       </c>
       <c r="D16">
-        <v>0.444141689373297</v>
+        <v>0.4865718799368089</v>
       </c>
       <c r="E16">
-        <v>0.4294478527607362</v>
+        <v>0.4131493506493507</v>
       </c>
       <c r="F16">
-        <v>0.4204081632653061</v>
+        <v>0.4282907662082515</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -816,19 +816,19 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>0.4591</v>
+        <v>0.4599</v>
       </c>
       <c r="C17">
-        <v>0.4465258113700719</v>
+        <v>0.4490106544901065</v>
       </c>
       <c r="D17">
-        <v>0.4321951219512195</v>
+        <v>0.4329297820823245</v>
       </c>
       <c r="E17">
-        <v>0.435665914221219</v>
+        <v>0.453020134228188</v>
       </c>
       <c r="F17">
-        <v>0.4093264248704663</v>
+        <v>0.4691358024691358</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -836,19 +836,19 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>0.4803</v>
+        <v>0.4805</v>
       </c>
       <c r="C18">
-        <v>0.4268165729752238</v>
+        <v>0.440582726326743</v>
       </c>
       <c r="D18">
-        <v>0.451219512195122</v>
+        <v>0.4629192253188474</v>
       </c>
       <c r="E18">
-        <v>0.385945945945946</v>
+        <v>0.3857142857142857</v>
       </c>
       <c r="F18">
-        <v>0.4005602240896358</v>
+        <v>0.3756613756613757</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -856,19 +856,19 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>0.5354</v>
+        <v>0.4075</v>
       </c>
       <c r="C19">
-        <v>0.4247291744490101</v>
+        <v>0.4822085889570553</v>
       </c>
       <c r="D19">
-        <v>0.3869832893579596</v>
+        <v>0.4127226463104326</v>
       </c>
       <c r="E19">
-        <v>0.3897727272727273</v>
+        <v>0.4229346485819975</v>
       </c>
       <c r="F19">
-        <v>0.3527696793002916</v>
+        <v>0.4081632653061225</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -876,19 +876,19 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>0.4106</v>
+        <v>0.5379</v>
       </c>
       <c r="C20">
-        <v>0.4680954700438383</v>
+        <v>0.4151329243353783</v>
       </c>
       <c r="D20">
-        <v>0.3959417273673257</v>
+        <v>0.3927451858486341</v>
       </c>
       <c r="E20">
-        <v>0.4021024967148489</v>
+        <v>0.3831242873432155</v>
       </c>
       <c r="F20">
-        <v>0.3856209150326798</v>
+        <v>0.3452380952380952</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -896,19 +896,19 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>0.5185999999999999</v>
+        <v>0.5083</v>
       </c>
       <c r="C21">
-        <v>0.4251831854994216</v>
+        <v>0.4182569348809759</v>
       </c>
       <c r="D21">
-        <v>0.3736961451247165</v>
+        <v>0.3828786453433678</v>
       </c>
       <c r="E21">
-        <v>0.3810679611650485</v>
+        <v>0.3402948402948403</v>
       </c>
       <c r="F21">
-        <v>0.3439490445859873</v>
+        <v>0.3862815884476534</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -916,19 +916,19 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>0.3855</v>
+        <v>0.3811</v>
       </c>
       <c r="C22">
-        <v>0.3994811932555123</v>
+        <v>0.4421411702965101</v>
       </c>
       <c r="D22">
-        <v>0.3733766233766234</v>
+        <v>0.3750741839762611</v>
       </c>
       <c r="E22">
-        <v>0.3860869565217391</v>
+        <v>0.3829113924050632</v>
       </c>
       <c r="F22">
-        <v>0.4324324324324324</v>
+        <v>0.3884297520661157</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -936,19 +936,19 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>0.4642</v>
+        <v>0.4681</v>
       </c>
       <c r="C23">
-        <v>0.3612666953899181</v>
+        <v>0.3787652211066012</v>
       </c>
       <c r="D23">
-        <v>0.3846153846153846</v>
+        <v>0.3728144388042866</v>
       </c>
       <c r="E23">
-        <v>0.3937984496124031</v>
+        <v>0.37821482602118</v>
       </c>
       <c r="F23">
-        <v>0.3188976377952756</v>
+        <v>0.3599999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -956,19 +956,19 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>0.364</v>
+        <v>0.38</v>
       </c>
       <c r="C24">
-        <v>0.4285714285714286</v>
+        <v>0.4060526315789473</v>
       </c>
       <c r="D24">
-        <v>0.3782051282051282</v>
+        <v>0.3953337653920934</v>
       </c>
       <c r="E24">
-        <v>0.3627118644067797</v>
+        <v>0.4163934426229508</v>
       </c>
       <c r="F24">
-        <v>0.3551401869158879</v>
+        <v>0.3425196850393701</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -976,19 +976,19 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>0.2672</v>
+        <v>0.2771</v>
       </c>
       <c r="C25">
-        <v>0.3622754491017964</v>
+        <v>0.361963190184049</v>
       </c>
       <c r="D25">
-        <v>0.3667355371900826</v>
+        <v>0.3659022931206381</v>
       </c>
       <c r="E25">
-        <v>0.3408450704225353</v>
+        <v>0.3623978201634877</v>
       </c>
       <c r="F25">
-        <v>0.3471074380165289</v>
+        <v>0.3609022556390977</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -996,19 +996,19 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>0.2939</v>
+        <v>0.3035</v>
       </c>
       <c r="C26">
-        <v>0.3453555631167064</v>
+        <v>0.3518945634266887</v>
       </c>
       <c r="D26">
-        <v>0.3330049261083743</v>
+        <v>0.3239700374531835</v>
       </c>
       <c r="E26">
-        <v>0.3284023668639054</v>
+        <v>0.384393063583815</v>
       </c>
       <c r="F26">
-        <v>0.3153153153153153</v>
+        <v>0.3082706766917294</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1016,19 +1016,19 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>0.2488</v>
+        <v>0.2672</v>
       </c>
       <c r="C27">
-        <v>0.3223472668810289</v>
+        <v>0.3574101796407186</v>
       </c>
       <c r="D27">
-        <v>0.3890274314214464</v>
+        <v>0.3895287958115183</v>
       </c>
       <c r="E27">
-        <v>0.3333333333333333</v>
+        <v>0.3118279569892473</v>
       </c>
       <c r="F27">
-        <v>0.3269230769230769</v>
+        <v>0.3189655172413793</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1036,19 +1036,19 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>0.2541</v>
+        <v>0.247</v>
       </c>
       <c r="C28">
-        <v>0.3242817788272334</v>
+        <v>0.3408906882591093</v>
       </c>
       <c r="D28">
-        <v>0.3434466019417475</v>
+        <v>0.3123515439429929</v>
       </c>
       <c r="E28">
-        <v>0.2826855123674912</v>
+        <v>0.3003802281368821</v>
       </c>
       <c r="F28">
-        <v>0.3</v>
+        <v>0.3797468354430379</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1056,19 +1056,19 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>0.2446</v>
+        <v>0.2717</v>
       </c>
       <c r="C29">
-        <v>0.3237939493049877</v>
+        <v>0.3345601766654398</v>
       </c>
       <c r="D29">
-        <v>0.3093434343434343</v>
+        <v>0.3520352035203521</v>
       </c>
       <c r="E29">
-        <v>0.289795918367347</v>
+        <v>0.3125</v>
       </c>
       <c r="F29">
-        <v>0.2816901408450704</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1076,19 +1076,19 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>0.1358</v>
+        <v>0.1531</v>
       </c>
       <c r="C30">
-        <v>0.2223858615611193</v>
+        <v>0.2756368386675375</v>
       </c>
       <c r="D30">
-        <v>0.2218543046357616</v>
+        <v>0.2630331753554502</v>
       </c>
       <c r="E30">
-        <v>0.3582089552238806</v>
+        <v>0.2522522522522522</v>
       </c>
       <c r="F30">
-        <v>0.2916666666666667</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1096,19 +1096,19 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>0.1171</v>
+        <v>0.1234</v>
       </c>
       <c r="C31">
-        <v>0.2374039282664389</v>
+        <v>0.2682333873581847</v>
       </c>
       <c r="D31">
-        <v>0.2589928057553957</v>
+        <v>0.2598187311178248</v>
       </c>
       <c r="E31">
-        <v>0.3055555555555556</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="F31">
-        <v>0.1818181818181818</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1116,36 +1116,39 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>0.129</v>
+        <v>0.1347</v>
       </c>
       <c r="C32">
-        <v>0.227906976744186</v>
+        <v>0.2390497401633259</v>
       </c>
       <c r="D32">
-        <v>0.1802721088435374</v>
+        <v>0.2080745341614907</v>
       </c>
       <c r="E32">
-        <v>0.2075471698113208</v>
+        <v>0.1641791044776119</v>
       </c>
       <c r="F32">
         <v>0.2727272727272727</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B33">
-        <v>0.0462</v>
+        <v>0.058</v>
       </c>
       <c r="C33">
-        <v>0.145021645021645</v>
+        <v>0.1551724137931034</v>
       </c>
       <c r="D33">
-        <v>0.1641791044776119</v>
+        <v>0.07777777777777778</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
